--- a/data/secar_monthly_data_extremes.xlsx
+++ b/data/secar_monthly_data_extremes.xlsx
@@ -2563,7 +2563,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2572,11 +2572,11 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>27.4</v>
+        <v>48.3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2585,11 +2585,11 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>12.69417562724014</v>
+        <v>12.16423632907861</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="Y13" t="n">
-        <v>8.735483870967743</v>
+        <v>7.892592592592592</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -2676,11 +2676,11 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>8.611393495380886</v>
+        <v>8.093512851363604</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="AH13" t="n">
-        <v>1.253843445980543</v>
+        <v>2.090008960573476</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>

--- a/data/secar_monthly_data_extremes.xlsx
+++ b/data/secar_monthly_data_extremes.xlsx
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>12.16423632907861</v>
+        <v>12.00064964157706</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="Y13" t="n">
-        <v>7.892592592592592</v>
+        <v>7.674193548387097</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>8.093512851363604</v>
+        <v>8.016087813620072</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>

--- a/data/secar_monthly_data_extremes.xlsx
+++ b/data/secar_monthly_data_extremes.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -788,11 +788,11 @@
         </is>
       </c>
       <c r="AK2" t="n">
-        <v>1021.385952264581</v>
+        <v>1020.062541335979</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>12.00064964157706</v>
+        <v>11.99838709677419</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>8.016087813620072</v>
+        <v>8.015098566308245</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>

--- a/data/secar_monthly_data_extremes.xlsx
+++ b/data/secar_monthly_data_extremes.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -788,11 +788,11 @@
         </is>
       </c>
       <c r="AK2" t="n">
-        <v>1020.062541335979</v>
+        <v>1021.385952264581</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>0.6000000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
